--- a/WorkBot/main/backend/ordering/OrderFiles/UNFI/UNFI_Bakery_20250705.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/UNFI/UNFI_Bakery_20250705.xlsx
@@ -451,972 +451,972 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>267463-8</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poppi Soda - Ginger Lime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>272451-6</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poppi Soda - Doc Pop</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2724508</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poppi Soda - Classic</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0252387</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Terra - Veg Chips Sea Salt (1oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>289451-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Just Tea - Peach</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>103.68</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>289450-9</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Just Tea - Original Green</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>289449-1</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Just Tea - Moroccan Mint</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>289447-5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Just Tea - Half &amp; Half</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>155.52</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2802668</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Pellegrino - Melograno &amp; Arancia (Pomegranate)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>280261-9</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Pellegrino - Limonata (Lemon)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>280251-0</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Pellegrino - Aranciata Rossa (Blood Orange)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>280264-3</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>San Pellegrino - Aranciata (Orange)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26.94</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0681817</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kettle Potato Chips - Sea Salt (5oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>50.18</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>50.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0445320</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kettle Potato Chips - Backyard Barbeque (5oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50.18</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>153503-8</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>High Brew - Mex Vanilla</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>47.20</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>153498-1</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>High Brew - DBL Expresso</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>117597-5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>That's It - Apple &amp; Mango (Fruit Bar)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>151758-0</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>That's It - Apple &amp; Blueberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>078719-2</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clif Bar - Builders Choc Mint</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>285863-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kind - Maple Glazed Pecan &amp; Sea Salt</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>285868-6</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kind - Caramel Almond &amp; Sea Salt (Nut Bar)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>236948-6</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bob's Bar - Oat, PB Coconut</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>236945-2</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bob's Bar - Oat, PB Banana</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1182781</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chocolove - Dk Choc Raspberries</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0431726</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chocolove - Mlk Choc Pure</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1815422</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chocolove - Dk Choc Salted Caramel</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0695312</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chocolove - Dk Choc Chilies &amp; Cherries</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0327270</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tofutti - Plain (8oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>51.62</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>103.24</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1109826</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Harmless Harvest - Coconut Water</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>65.48</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>65.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2273316</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Gingerade</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2273399</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Trilogy</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>227347-2</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Strawberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2273464</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Cranberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>223893-9</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Remedy - Superseed Fuel</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>75.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>223894-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Remedy - Matcha Fuel</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>223791-5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Remedy - Drk Cacoa Essential</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>50.12</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
